--- a/Risk Register.xlsx
+++ b/Risk Register.xlsx
@@ -16,6 +16,9 @@
     <t>Risk Categories</t>
   </si>
   <si>
+    <t xml:space="preserve"> Numbers of risks</t>
+  </si>
+  <si>
     <t>Risk SubTitles</t>
   </si>
   <si>
@@ -104,9 +107,6 @@
   </si>
   <si>
     <t>Tech Resources problems (Wifi, equipments)</t>
-  </si>
-  <si>
-    <t>Quality Risk</t>
   </si>
   <si>
     <t>Legal Risk</t>
@@ -198,258 +198,312 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3">
         <v>2.0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J3" s="3">
         <v>13.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5.0</v>
+      <c r="C4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="J4" s="3">
         <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3">
+      <c r="C5" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3">
         <v>16.0</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <v>3.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="C6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
         <v>5.0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="3">
         <v>12.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="C7" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3">
         <v>17.0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="C8" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3">
         <v>18.0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="C9" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3">
         <v>1.0</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="C10" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3">
         <v>15.0</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>17.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="C11" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3">
         <v>4.0</v>
       </c>
-      <c r="H11" s="3">
+      <c r="J11" s="3">
         <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3">
+      <c r="C12" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3">
         <v>14.0</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>16.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="3">
         <v>7.0</v>
       </c>
-      <c r="H13" s="3">
+      <c r="J13" s="3">
         <v>18.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="C14" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3">
         <v>13.0</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="3">
+      <c r="C15" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3">
         <v>8.0</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>7.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="C16" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3">
         <v>9.0</v>
       </c>
-      <c r="H16" s="3">
+      <c r="J16" s="3">
         <v>8.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="3">
         <v>12.0</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="C18" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="3">
         <v>10.0</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="3">
+      <c r="C19" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="3">
         <v>3.0</v>
       </c>
-      <c r="H19" s="3">
+      <c r="J19" s="3">
         <v>14.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="3">
+      <c r="C20" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="3">
         <v>11.0</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>15.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C21" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H21" s="3">
         <v>19.0</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J21" s="3">
         <v>9.0</v>
       </c>
     </row>
